--- a/datasets/lista_empresas.xlsx
+++ b/datasets/lista_empresas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1041">
   <si>
     <t>Código</t>
   </si>
@@ -46,21 +46,21 @@
     <t>AESB3</t>
   </si>
   <si>
+    <t>TIET3</t>
+  </si>
+  <si>
     <t>TIET4</t>
   </si>
   <si>
-    <t>TIET3</t>
-  </si>
-  <si>
     <t>ATOM3</t>
   </si>
   <si>
+    <t>CALI4</t>
+  </si>
+  <si>
     <t>CALI3</t>
   </si>
   <si>
-    <t>CALI4</t>
-  </si>
-  <si>
     <t>AERI3</t>
   </si>
   <si>
@@ -76,15 +76,15 @@
     <t>CRIV3</t>
   </si>
   <si>
+    <t>RPAD6</t>
+  </si>
+  <si>
     <t>RPAD3</t>
   </si>
   <si>
     <t>RPAD5</t>
   </si>
   <si>
-    <t>RPAD6</t>
-  </si>
-  <si>
     <t>BRIV4</t>
   </si>
   <si>
@@ -103,24 +103,24 @@
     <t>ALLD3</t>
   </si>
   <si>
+    <t>ALPA4</t>
+  </si>
+  <si>
     <t>ALPA3</t>
   </si>
   <si>
-    <t>ALPA4</t>
-  </si>
-  <si>
     <t>APER3</t>
   </si>
   <si>
     <t>AVLL3</t>
   </si>
   <si>
+    <t>ALUP3</t>
+  </si>
+  <si>
     <t>ALUP4</t>
   </si>
   <si>
-    <t>ALUP3</t>
-  </si>
-  <si>
     <t>ABEV3</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>ATMP3</t>
   </si>
   <si>
+    <t>AZEV4</t>
+  </si>
+  <si>
     <t>AZEV3</t>
   </si>
   <si>
-    <t>AZEV4</t>
-  </si>
-  <si>
     <t>AZUL4</t>
   </si>
   <si>
@@ -202,30 +202,30 @@
     <t>BBDC4</t>
   </si>
   <si>
+    <t>BIDI3</t>
+  </si>
+  <si>
     <t>BIDI4</t>
   </si>
   <si>
-    <t>BIDI3</t>
+    <t>BMIN3</t>
   </si>
   <si>
     <t>BMIN4</t>
   </si>
   <si>
-    <t>BMIN3</t>
-  </si>
-  <si>
     <t>BMEB4</t>
   </si>
   <si>
     <t>BMEB3</t>
   </si>
   <si>
+    <t>MODL4</t>
+  </si>
+  <si>
     <t>MODL3</t>
   </si>
   <si>
-    <t>MODL4</t>
-  </si>
-  <si>
     <t>BPAN4</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>BDLL4</t>
   </si>
   <si>
+    <t>BALM4</t>
+  </si>
+  <si>
     <t>BALM3</t>
   </si>
   <si>
-    <t>BALM4</t>
-  </si>
-  <si>
     <t>BMOB3</t>
   </si>
   <si>
@@ -313,12 +313,12 @@
     <t>BOBR4</t>
   </si>
   <si>
+    <t>BRAP4</t>
+  </si>
+  <si>
     <t>BRAP3</t>
   </si>
   <si>
-    <t>BRAP4</t>
-  </si>
-  <si>
     <t>NEXP3</t>
   </si>
   <si>
@@ -355,21 +355,21 @@
     <t>CCPR3</t>
   </si>
   <si>
+    <t>CEBR5</t>
+  </si>
+  <si>
+    <t>CEBR3</t>
+  </si>
+  <si>
     <t>CEBR6</t>
   </si>
   <si>
-    <t>CEBR3</t>
-  </si>
-  <si>
-    <t>CEBR5</t>
+    <t>CEED3</t>
   </si>
   <si>
     <t>CEED4</t>
   </si>
   <si>
-    <t>CEED3</t>
-  </si>
-  <si>
     <t>EEEL4</t>
   </si>
   <si>
@@ -379,15 +379,15 @@
     <t>GPAR3</t>
   </si>
   <si>
+    <t>CEPE3</t>
+  </si>
+  <si>
+    <t>CEPE5</t>
+  </si>
+  <si>
     <t>CEPE6</t>
   </si>
   <si>
-    <t>CEPE5</t>
-  </si>
-  <si>
-    <t>CEPE3</t>
-  </si>
-  <si>
     <t>CMIG4</t>
   </si>
   <si>
@@ -415,15 +415,15 @@
     <t>CSMG3</t>
   </si>
   <si>
+    <t>CSRN3</t>
+  </si>
+  <si>
+    <t>CSRN5</t>
+  </si>
+  <si>
     <t>CSRN6</t>
   </si>
   <si>
-    <t>CSRN5</t>
-  </si>
-  <si>
-    <t>CSRN3</t>
-  </si>
-  <si>
     <t>CPFE3</t>
   </si>
   <si>
@@ -469,12 +469,12 @@
     <t>MAPT3</t>
   </si>
   <si>
+    <t>CSAB3</t>
+  </si>
+  <si>
     <t>CSAB4</t>
   </si>
   <si>
-    <t>CSAB3</t>
-  </si>
-  <si>
     <t>CIEL3</t>
   </si>
   <si>
@@ -493,60 +493,60 @@
     <t>COGN3</t>
   </si>
   <si>
+    <t>CGAS3</t>
+  </si>
+  <si>
     <t>CGAS5</t>
   </si>
   <si>
-    <t>CGAS3</t>
-  </si>
-  <si>
     <t>ODER4</t>
   </si>
   <si>
     <t>TEND3</t>
   </si>
   <si>
+    <t>BRGE7</t>
+  </si>
+  <si>
+    <t>BRGE3</t>
+  </si>
+  <si>
+    <t>BRGE11</t>
+  </si>
+  <si>
+    <t>BRGE12</t>
+  </si>
+  <si>
+    <t>BRGE8</t>
+  </si>
+  <si>
     <t>BRGE6</t>
   </si>
   <si>
-    <t>BRGE12</t>
-  </si>
-  <si>
-    <t>BRGE11</t>
-  </si>
-  <si>
-    <t>BRGE3</t>
-  </si>
-  <si>
     <t>BRGE5</t>
   </si>
   <si>
-    <t>BRGE7</t>
-  </si>
-  <si>
-    <t>BRGE8</t>
+    <t>CPLE3</t>
+  </si>
+  <si>
+    <t>CPLE6</t>
   </si>
   <si>
     <t>CPLE5</t>
   </si>
   <si>
-    <t>CPLE3</t>
-  </si>
-  <si>
-    <t>CPLE6</t>
-  </si>
-  <si>
     <t>CORR4</t>
   </si>
   <si>
     <t>CSAN3</t>
   </si>
   <si>
+    <t>CTNM3</t>
+  </si>
+  <si>
     <t>CTNM4</t>
   </si>
   <si>
-    <t>CTNM3</t>
-  </si>
-  <si>
     <t>CSED3</t>
   </si>
   <si>
@@ -607,12 +607,12 @@
     <t>ENBR3</t>
   </si>
   <si>
+    <t>EMAE4</t>
+  </si>
+  <si>
     <t>EMAE3</t>
   </si>
   <si>
-    <t>EMAE4</t>
-  </si>
-  <si>
     <t>EPAR3</t>
   </si>
   <si>
@@ -622,27 +622,27 @@
     <t>ECOR3</t>
   </si>
   <si>
+    <t>EALT4</t>
+  </si>
+  <si>
     <t>EALT3</t>
   </si>
   <si>
-    <t>EALT4</t>
-  </si>
-  <si>
     <t>EKTR3</t>
   </si>
   <si>
     <t>EKTR4</t>
   </si>
   <si>
+    <t>ELET6</t>
+  </si>
+  <si>
+    <t>ELET3</t>
+  </si>
+  <si>
     <t>ELET5</t>
   </si>
   <si>
-    <t>ELET3</t>
-  </si>
-  <si>
-    <t>ELET6</t>
-  </si>
-  <si>
     <t>ELMD3</t>
   </si>
   <si>
@@ -670,12 +670,12 @@
     <t>ENGI3</t>
   </si>
   <si>
+    <t>ENMT4</t>
+  </si>
+  <si>
     <t>ENMT3</t>
   </si>
   <si>
-    <t>ENMT4</t>
-  </si>
-  <si>
     <t>ENEV3</t>
   </si>
   <si>
@@ -688,18 +688,18 @@
     <t>EQTL3</t>
   </si>
   <si>
+    <t>EQPA3</t>
+  </si>
+  <si>
+    <t>EQPA5</t>
+  </si>
+  <si>
+    <t>EQPA6</t>
+  </si>
+  <si>
     <t>EQPA7</t>
   </si>
   <si>
-    <t>EQPA6</t>
-  </si>
-  <si>
-    <t>EQPA3</t>
-  </si>
-  <si>
-    <t>EQPA5</t>
-  </si>
-  <si>
     <t>EQMA3B</t>
   </si>
   <si>
@@ -718,12 +718,12 @@
     <t>ETER3</t>
   </si>
   <si>
+    <t>EUCA3</t>
+  </si>
+  <si>
     <t>EUCA4</t>
   </si>
   <si>
-    <t>EUCA3</t>
-  </si>
-  <si>
     <t>EVEN3</t>
   </si>
   <si>
@@ -736,12 +736,12 @@
     <t>FIEI3</t>
   </si>
   <si>
+    <t>FESA3</t>
+  </si>
+  <si>
     <t>FESA4</t>
   </si>
   <si>
-    <t>FESA3</t>
-  </si>
-  <si>
     <t>FHER3</t>
   </si>
   <si>
@@ -838,12 +838,12 @@
     <t>HBOR3</t>
   </si>
   <si>
+    <t>HETA3</t>
+  </si>
+  <si>
     <t>HETA4</t>
   </si>
   <si>
-    <t>HETA3</t>
-  </si>
-  <si>
     <t>HGTX3</t>
   </si>
   <si>
@@ -871,12 +871,12 @@
     <t>IRBR3</t>
   </si>
   <si>
+    <t>IGTI3</t>
+  </si>
+  <si>
     <t>IGTI4</t>
   </si>
   <si>
-    <t>IGTI3</t>
-  </si>
-  <si>
     <t>ROMI3</t>
   </si>
   <si>
@@ -892,30 +892,30 @@
     <t>INTB3</t>
   </si>
   <si>
+    <t>FIGE3</t>
+  </si>
+  <si>
     <t>FIGE4</t>
   </si>
   <si>
-    <t>FIGE3</t>
-  </si>
-  <si>
     <t>MYPK3</t>
   </si>
   <si>
     <t>RANI3</t>
   </si>
   <si>
+    <t>ITUB4</t>
+  </si>
+  <si>
     <t>ITUB3</t>
   </si>
   <si>
-    <t>ITUB4</t>
+    <t>ITSA3</t>
   </si>
   <si>
     <t>ITSA4</t>
   </si>
   <si>
-    <t>ITSA3</t>
-  </si>
-  <si>
     <t>JBDU3</t>
   </si>
   <si>
@@ -937,30 +937,30 @@
     <t>JALL3</t>
   </si>
   <si>
+    <t>JOPA3</t>
+  </si>
+  <si>
     <t>JOPA4</t>
   </si>
   <si>
-    <t>JOPA3</t>
-  </si>
-  <si>
     <t>JFEN3</t>
   </si>
   <si>
+    <t>CTKA4</t>
+  </si>
+  <si>
     <t>CTKA3</t>
   </si>
   <si>
-    <t>CTKA4</t>
-  </si>
-  <si>
     <t>KEPL3</t>
   </si>
   <si>
+    <t>KLBN3</t>
+  </si>
+  <si>
     <t>KLBN4</t>
   </si>
   <si>
-    <t>KLBN3</t>
-  </si>
-  <si>
     <t>KRSA3</t>
   </si>
   <si>
@@ -1018,24 +1018,24 @@
     <t>MDIA3</t>
   </si>
   <si>
+    <t>MTSA4</t>
+  </si>
+  <si>
     <t>MTSA3</t>
   </si>
   <si>
-    <t>MTSA4</t>
-  </si>
-  <si>
     <t>MMXM3</t>
   </si>
   <si>
+    <t>MRSA5B</t>
+  </si>
+  <si>
+    <t>MRSA3B</t>
+  </si>
+  <si>
     <t>MRSA6B</t>
   </si>
   <si>
-    <t>MRSA5B</t>
-  </si>
-  <si>
-    <t>MRSA3B</t>
-  </si>
-  <si>
     <t>MRVE3</t>
   </si>
   <si>
@@ -1063,12 +1063,12 @@
     <t>MATD3</t>
   </si>
   <si>
+    <t>MSPA3</t>
+  </si>
+  <si>
     <t>MSPA4</t>
   </si>
   <si>
-    <t>MSPA3</t>
-  </si>
-  <si>
     <t>MELK3</t>
   </si>
   <si>
@@ -1081,12 +1081,12 @@
     <t>FRIO3</t>
   </si>
   <si>
+    <t>MTIG4</t>
+  </si>
+  <si>
     <t>MTIG3</t>
   </si>
   <si>
-    <t>MTIG4</t>
-  </si>
-  <si>
     <t>GOAU3</t>
   </si>
   <si>
@@ -1159,6 +1159,12 @@
     <t>GNDI3</t>
   </si>
   <si>
+    <t>NUTR3</t>
+  </si>
+  <si>
+    <t>MEGA3</t>
+  </si>
+  <si>
     <t>OSXB3</t>
   </si>
   <si>
@@ -1189,6 +1195,9 @@
     <t>PDGR3</t>
   </si>
   <si>
+    <t>PINE3</t>
+  </si>
+  <si>
     <t>PINE4</t>
   </si>
   <si>
@@ -1267,21 +1276,21 @@
     <t>RADL3</t>
   </si>
   <si>
+    <t>RAPT3</t>
+  </si>
+  <si>
     <t>RAPT4</t>
   </si>
   <si>
-    <t>RAPT3</t>
-  </si>
-  <si>
     <t>RAIZ4</t>
   </si>
   <si>
+    <t>RCSL3</t>
+  </si>
+  <si>
     <t>RCSL4</t>
   </si>
   <si>
-    <t>RCSL3</t>
-  </si>
-  <si>
     <t>RDOR3</t>
   </si>
   <si>
@@ -1297,12 +1306,12 @@
     <t>RNEW3</t>
   </si>
   <si>
+    <t>GEPA4</t>
+  </si>
+  <si>
     <t>GEPA3</t>
   </si>
   <si>
-    <t>GEPA4</t>
-  </si>
-  <si>
     <t>RSID3</t>
   </si>
   <si>
@@ -1324,24 +1333,24 @@
     <t>SAPR4</t>
   </si>
   <si>
+    <t>SNSY5</t>
+  </si>
+  <si>
+    <t>SNSY3</t>
+  </si>
+  <si>
     <t>SNSY6</t>
   </si>
   <si>
-    <t>SNSY3</t>
-  </si>
-  <si>
-    <t>SNSY5</t>
+    <t>CTSA3</t>
+  </si>
+  <si>
+    <t>CTSA8</t>
   </si>
   <si>
     <t>CTSA4</t>
   </si>
   <si>
-    <t>CTSA8</t>
-  </si>
-  <si>
-    <t>CTSA3</t>
-  </si>
-  <si>
     <t>STBP3</t>
   </si>
   <si>
@@ -1378,15 +1387,15 @@
     <t>SMLS3</t>
   </si>
   <si>
+    <t>SOND3</t>
+  </si>
+  <si>
+    <t>SOND6</t>
+  </si>
+  <si>
     <t>SOND5</t>
   </si>
   <si>
-    <t>SOND6</t>
-  </si>
-  <si>
-    <t>SOND3</t>
-  </si>
-  <si>
     <t>SGPS3</t>
   </si>
   <si>
@@ -1405,12 +1414,12 @@
     <t>SMTO3</t>
   </si>
   <si>
+    <t>AHEB6</t>
+  </si>
+  <si>
     <t>AHEB3</t>
   </si>
   <si>
-    <t>AHEB6</t>
-  </si>
-  <si>
     <t>AHEB5</t>
   </si>
   <si>
@@ -1423,12 +1432,12 @@
     <t>TAEE3</t>
   </si>
   <si>
+    <t>TASA3</t>
+  </si>
+  <si>
     <t>TASA4</t>
   </si>
   <si>
-    <t>TASA3</t>
-  </si>
-  <si>
     <t>TECN3</t>
   </si>
   <si>
@@ -1444,30 +1453,30 @@
     <t>TGMA3</t>
   </si>
   <si>
+    <t>TEKA3</t>
+  </si>
+  <si>
     <t>TEKA4</t>
   </si>
   <si>
-    <t>TEKA3</t>
+    <t>TKNO4</t>
   </si>
   <si>
     <t>TKNO3</t>
   </si>
   <si>
-    <t>TKNO4</t>
+    <t>TELB3</t>
   </si>
   <si>
     <t>TELB4</t>
   </si>
   <si>
-    <t>TELB3</t>
+    <t>TESA3</t>
   </si>
   <si>
     <t>LAND3</t>
   </si>
   <si>
-    <t>TESA3</t>
-  </si>
-  <si>
     <t>SHOW3</t>
   </si>
   <si>
@@ -1498,15 +1507,15 @@
     <t>TPIS3</t>
   </si>
   <si>
+    <t>CRPG6</t>
+  </si>
+  <si>
+    <t>CRPG5</t>
+  </si>
+  <si>
     <t>CRPG3</t>
   </si>
   <si>
-    <t>CRPG5</t>
-  </si>
-  <si>
-    <t>CRPG6</t>
-  </si>
-  <si>
     <t>TUPY3</t>
   </si>
   <si>
@@ -1519,22 +1528,25 @@
     <t>FIQE3</t>
   </si>
   <si>
+    <t>UNIP5</t>
+  </si>
+  <si>
+    <t>UNIP3</t>
+  </si>
+  <si>
     <t>UNIP6</t>
   </si>
   <si>
-    <t>UNIP3</t>
-  </si>
-  <si>
-    <t>UNIP5</t>
+    <t>USIM6</t>
+  </si>
+  <si>
+    <t>USIM5</t>
   </si>
   <si>
     <t>USIM3</t>
   </si>
   <si>
-    <t>USIM6</t>
-  </si>
-  <si>
-    <t>USIM5</t>
+    <t>AURE3</t>
   </si>
   <si>
     <t>VVAR3</t>
@@ -1579,12 +1591,12 @@
     <t>WIZS3</t>
   </si>
   <si>
+    <t>WLMM4</t>
+  </si>
+  <si>
     <t>WLMM3</t>
   </si>
   <si>
-    <t>WLMM4</t>
-  </si>
-  <si>
     <t>WEST3</t>
   </si>
   <si>
@@ -1594,12 +1606,12 @@
     <t>MWET4</t>
   </si>
   <si>
+    <t>WHRL4</t>
+  </si>
+  <si>
     <t>WHRL3</t>
   </si>
   <si>
-    <t>WHRL4</t>
-  </si>
-  <si>
     <t>PORT3</t>
   </si>
   <si>
@@ -1615,6 +1627,15 @@
     <t>ANIM3</t>
   </si>
   <si>
+    <t>Boticário</t>
+  </si>
+  <si>
+    <t>Avon</t>
+  </si>
+  <si>
+    <t>Nubank</t>
+  </si>
+  <si>
     <t>3R Petroleum</t>
   </si>
   <si>
@@ -1633,7 +1654,7 @@
     <t>Adolpho Lindenberg</t>
   </si>
   <si>
-    <t>Aeris Energy</t>
+    <t>Aeris</t>
   </si>
   <si>
     <t>Afluente T</t>
@@ -1681,7 +1702,7 @@
     <t>Ambipar</t>
   </si>
   <si>
-    <t>Americanas</t>
+    <t>Lojas Americanas</t>
   </si>
   <si>
     <t>Ampla Energia</t>
@@ -2167,15 +2188,15 @@
     <t>IGB Eletrônica</t>
   </si>
   <si>
+    <t>Iguatemi</t>
+  </si>
+  <si>
     <t>IMC Alimentação</t>
   </si>
   <si>
     <t>IRB Brasil RE</t>
   </si>
   <si>
-    <t>Iguatemi</t>
-  </si>
-  <si>
     <t>Indústrias ROMI</t>
   </si>
   <si>
@@ -2263,9 +2284,6 @@
     <t>Log-In</t>
   </si>
   <si>
-    <t>Lojas Americanas</t>
-  </si>
-  <si>
     <t>Lojas Marisa</t>
   </si>
   <si>
@@ -2398,6 +2416,12 @@
     <t>NotreDame Intermédica</t>
   </si>
   <si>
+    <t>Nutriplant</t>
+  </si>
+  <si>
+    <t>OMEGA ENERGIA S.A.</t>
+  </si>
+  <si>
     <t>OSX Brasil</t>
   </si>
   <si>
@@ -2554,7 +2578,7 @@
     <t>Ser Educacional</t>
   </si>
   <si>
-    <t>Siderúrgica Nacional</t>
+    <t>CSN</t>
   </si>
   <si>
     <t>Simpar</t>
@@ -2635,7 +2659,7 @@
     <t>Traders Club</t>
   </si>
   <si>
-    <t>Transmissão Paulista</t>
+    <t>CTEEP</t>
   </si>
   <si>
     <t>Trevisa</t>
@@ -2668,6 +2692,9 @@
     <t>Usiminas</t>
   </si>
   <si>
+    <t>VTRM ENERGIA PARTICIPAÃiES S.A.</t>
+  </si>
+  <si>
     <t>Vale</t>
   </si>
   <si>
@@ -2729,6 +2756,9 @@
   </si>
   <si>
     <t>Ânima Educação</t>
+  </si>
+  <si>
+    <t>Grupo Boticário</t>
   </si>
   <si>
     <t>TRÊS TENTOS AGROINDUSTRIAL S/A</t>
@@ -3464,7 +3494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3501,7 +3531,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3512,19 +3542,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="E3" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F3">
         <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H3">
         <v>45.1550014568605</v>
@@ -3538,19 +3568,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D4" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="E4" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="F4">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H4">
         <v>80.16239388388098</v>
@@ -3564,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3575,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3586,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3597,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3608,7 +3638,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3619,19 +3649,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D10" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="E10" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F10">
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H10">
         <v>70.56005356358618</v>
@@ -3645,7 +3675,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3656,7 +3686,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3667,7 +3697,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3678,7 +3708,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3689,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3700,7 +3730,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3711,7 +3741,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3722,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3733,7 +3763,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3744,19 +3774,19 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D20" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="E20" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="F20">
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H20">
         <v>68.16817343117162</v>
@@ -3770,7 +3800,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3781,7 +3811,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3792,7 +3822,7 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3803,7 +3833,7 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3814,7 +3844,7 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3825,7 +3855,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3836,7 +3866,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3847,7 +3877,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3858,7 +3888,7 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3869,19 +3899,19 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D30" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="E30" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="F30">
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H30">
         <v>70.366137055149</v>
@@ -3895,19 +3925,19 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D31" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="E31" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="F31">
         <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H31">
         <v>83.39955906733211</v>
@@ -3921,19 +3951,19 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D32" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="E32" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="F32">
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="H32">
         <v>82.06647016788708</v>
@@ -3947,7 +3977,7 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3958,19 +3988,19 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D34" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="E34" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="F34">
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H34">
         <v>75.92893989062469</v>
@@ -3984,7 +4014,7 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3995,19 +4025,19 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D36" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="E36" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="F36">
         <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H36">
         <v>70.14129158836715</v>
@@ -4021,7 +4051,7 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4032,7 +4062,7 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4043,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4054,19 +4084,19 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D40" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="E40" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="F40">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H40">
         <v>73.5955710332735</v>
@@ -4080,19 +4110,19 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D41" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="E41" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="F41">
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H41">
         <v>75.27420460645099</v>
@@ -4106,7 +4136,7 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4139,7 +4169,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4161,19 +4191,19 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D47" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="E47" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="F47">
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H47">
         <v>76.19299736931079</v>
@@ -4187,7 +4217,7 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4209,7 +4239,7 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4220,7 +4250,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4231,7 +4261,7 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4242,19 +4272,19 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D53" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="E53" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F53">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H53">
         <v>80.56878122799772</v>
@@ -4268,7 +4298,7 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4279,7 +4309,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4290,19 +4320,19 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D56" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="E56" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F56">
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H56">
         <v>83.25420292815194</v>
@@ -4316,7 +4346,7 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4327,7 +4357,7 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4338,7 +4368,7 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4349,7 +4379,7 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4360,7 +4390,7 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4371,7 +4401,7 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4382,7 +4412,7 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4393,7 +4423,7 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4404,19 +4434,19 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D65" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="E65" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F65">
         <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H65">
         <v>83.23894195578978</v>
@@ -4430,19 +4460,19 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D66" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="E66" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F66">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H66">
         <v>80.58115904546932</v>
@@ -4456,7 +4486,7 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4467,7 +4497,7 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4478,7 +4508,7 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4489,7 +4519,7 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4500,19 +4530,19 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D71" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="E71" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F71">
         <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H71">
         <v>79.34059260429214</v>
@@ -4526,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4537,7 +4567,7 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4548,7 +4578,7 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4559,7 +4589,7 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4570,7 +4600,7 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4581,7 +4611,7 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4592,7 +4622,7 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4603,7 +4633,7 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4614,7 +4644,7 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4625,7 +4655,7 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4636,7 +4666,7 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4647,7 +4677,7 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4658,7 +4688,7 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4669,7 +4699,7 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4680,7 +4710,7 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4691,7 +4721,7 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4702,7 +4732,7 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4713,7 +4743,7 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4724,7 +4754,7 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4735,7 +4765,7 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4746,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4757,7 +4787,7 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4768,7 +4798,7 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4779,7 +4809,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4790,7 +4820,7 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4801,7 +4831,7 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4812,19 +4842,19 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D98" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="E98" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="F98">
         <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H98">
         <v>79.35557707858433</v>
@@ -4838,7 +4868,7 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4849,7 +4879,7 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4860,7 +4890,7 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4871,7 +4901,7 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4893,7 +4923,7 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4904,7 +4934,7 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4915,19 +4945,19 @@
         <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D106" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="E106" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="F106">
         <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H106">
         <v>86.02066153577704</v>
@@ -4952,7 +4982,7 @@
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4963,7 +4993,7 @@
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4974,7 +5004,7 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4985,7 +5015,7 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4996,7 +5026,7 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5007,7 +5037,7 @@
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5018,7 +5048,7 @@
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5029,7 +5059,7 @@
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5040,7 +5070,7 @@
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5051,7 +5081,7 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5062,7 +5092,7 @@
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5073,19 +5103,19 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D119" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="E119" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="F119">
         <v>24</v>
       </c>
       <c r="G119" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H119">
         <v>78.89093347672866</v>
@@ -5099,7 +5129,7 @@
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5110,7 +5140,7 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5121,7 +5151,7 @@
         <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5132,7 +5162,7 @@
         <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5154,7 +5184,7 @@
         <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5165,7 +5195,7 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5176,19 +5206,19 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="D127" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="E127" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="F127">
         <v>76</v>
       </c>
       <c r="G127" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H127">
         <v>50.64175654782237</v>
@@ -5202,7 +5232,7 @@
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5213,7 +5243,7 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5224,7 +5254,7 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5235,19 +5265,19 @@
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="D131" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="E131" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="F131">
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H131">
         <v>87.25702719554559</v>
@@ -5261,7 +5291,7 @@
         <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5272,7 +5302,7 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5283,7 +5313,7 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5294,7 +5324,7 @@
         <v>140</v>
       </c>
       <c r="C135" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5305,7 +5335,7 @@
         <v>141</v>
       </c>
       <c r="C136" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5316,7 +5346,7 @@
         <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5327,19 +5357,19 @@
         <v>143</v>
       </c>
       <c r="C138" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D138" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="E138" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="F138">
         <v>75</v>
       </c>
       <c r="G138" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H138">
         <v>52.940515291475</v>
@@ -5353,7 +5383,7 @@
         <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5364,7 +5394,7 @@
         <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5375,7 +5405,7 @@
         <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5386,7 +5416,7 @@
         <v>147</v>
       </c>
       <c r="C142" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5397,7 +5427,7 @@
         <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5408,7 +5438,7 @@
         <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5419,7 +5449,7 @@
         <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5430,7 +5460,7 @@
         <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5441,7 +5471,7 @@
         <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5452,19 +5482,19 @@
         <v>153</v>
       </c>
       <c r="C148" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D148" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="E148" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="F148">
         <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H148">
         <v>74.09993251261503</v>
@@ -5478,7 +5508,7 @@
         <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5489,7 +5519,7 @@
         <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5500,7 +5530,7 @@
         <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5511,7 +5541,7 @@
         <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5522,19 +5552,19 @@
         <v>158</v>
       </c>
       <c r="C153" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D153" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="E153" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="F153">
         <v>70</v>
       </c>
       <c r="G153" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H153">
         <v>59.21404947549702</v>
@@ -5548,7 +5578,7 @@
         <v>159</v>
       </c>
       <c r="C154" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5559,7 +5589,7 @@
         <v>160</v>
       </c>
       <c r="C155" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5570,7 +5600,7 @@
         <v>161</v>
       </c>
       <c r="C156" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5581,7 +5611,7 @@
         <v>162</v>
       </c>
       <c r="C157" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5592,7 +5622,7 @@
         <v>163</v>
       </c>
       <c r="C158" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5603,7 +5633,7 @@
         <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5614,7 +5644,7 @@
         <v>165</v>
       </c>
       <c r="C160" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5625,7 +5655,7 @@
         <v>166</v>
       </c>
       <c r="C161" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5636,7 +5666,7 @@
         <v>167</v>
       </c>
       <c r="C162" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5647,7 +5677,7 @@
         <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5658,7 +5688,7 @@
         <v>169</v>
       </c>
       <c r="C164" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5669,7 +5699,7 @@
         <v>170</v>
       </c>
       <c r="C165" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5680,7 +5710,22 @@
         <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>636</v>
+        <v>643</v>
+      </c>
+      <c r="D166" t="s">
+        <v>940</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F166">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H166">
+        <v>81.16544490223578</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5691,22 +5736,7 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>636</v>
-      </c>
-      <c r="D167" t="s">
-        <v>930</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F167">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H167">
-        <v>81.16544490223578</v>
+        <v>643</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5717,7 +5747,7 @@
         <v>173</v>
       </c>
       <c r="C168" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5728,19 +5758,19 @@
         <v>174</v>
       </c>
       <c r="C169" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D169" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="E169" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="F169">
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H169">
         <v>76.32496925847714</v>
@@ -5754,7 +5784,7 @@
         <v>175</v>
       </c>
       <c r="C170" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5765,7 +5795,7 @@
         <v>176</v>
       </c>
       <c r="C171" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5776,7 +5806,7 @@
         <v>177</v>
       </c>
       <c r="C172" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5787,7 +5817,7 @@
         <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5798,7 +5828,7 @@
         <v>179</v>
       </c>
       <c r="C174" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5809,7 +5839,7 @@
         <v>180</v>
       </c>
       <c r="C175" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5842,19 +5872,19 @@
         <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D178" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="E178" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="F178">
         <v>69</v>
       </c>
       <c r="G178" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H178">
         <v>59.86936005742879</v>
@@ -5868,7 +5898,7 @@
         <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5879,19 +5909,19 @@
         <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D180" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="E180" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="F180">
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H180">
         <v>77.61925387414517</v>
@@ -5905,7 +5935,7 @@
         <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5916,7 +5946,7 @@
         <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5927,7 +5957,7 @@
         <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5938,7 +5968,7 @@
         <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5949,7 +5979,7 @@
         <v>190</v>
       </c>
       <c r="C185" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5960,7 +5990,7 @@
         <v>191</v>
       </c>
       <c r="C186" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5971,7 +6001,7 @@
         <v>192</v>
       </c>
       <c r="C187" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5982,7 +6012,7 @@
         <v>193</v>
       </c>
       <c r="C188" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5993,7 +6023,7 @@
         <v>194</v>
       </c>
       <c r="C189" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6004,7 +6034,7 @@
         <v>195</v>
       </c>
       <c r="C190" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6015,19 +6045,19 @@
         <v>196</v>
       </c>
       <c r="C191" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D191" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="E191" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="F191">
         <v>1</v>
       </c>
       <c r="G191" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H191">
         <v>92.37602944531658</v>
@@ -6041,7 +6071,7 @@
         <v>197</v>
       </c>
       <c r="C192" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6052,7 +6082,7 @@
         <v>198</v>
       </c>
       <c r="C193" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6074,19 +6104,19 @@
         <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D195" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="E195" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="F195">
         <v>83</v>
       </c>
       <c r="G195" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H195">
         <v>34.09678600059552</v>
@@ -6100,19 +6130,19 @@
         <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="D196" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="E196" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="F196">
         <v>27</v>
       </c>
       <c r="G196" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H196">
         <v>78.25137591553653</v>
@@ -6126,7 +6156,7 @@
         <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6137,7 +6167,7 @@
         <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6148,7 +6178,7 @@
         <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6159,7 +6189,7 @@
         <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6170,7 +6200,7 @@
         <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6181,19 +6211,19 @@
         <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D202" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="E202" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="F202">
         <v>25</v>
       </c>
       <c r="G202" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H202">
         <v>78.81858393095897</v>
@@ -6207,7 +6237,7 @@
         <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6218,7 +6248,7 @@
         <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6229,7 +6259,7 @@
         <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6240,7 +6270,7 @@
         <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6251,7 +6281,7 @@
         <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6262,7 +6292,7 @@
         <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6273,7 +6303,7 @@
         <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6284,7 +6314,7 @@
         <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6295,7 +6325,7 @@
         <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6306,7 +6336,7 @@
         <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6317,7 +6347,7 @@
         <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6328,7 +6358,7 @@
         <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6339,19 +6369,19 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="D215" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="E215" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="F215">
         <v>40</v>
       </c>
       <c r="G215" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H215">
         <v>75.61771232485614</v>
@@ -6365,19 +6395,19 @@
         <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D216" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="E216" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="F216">
         <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H216">
         <v>82.71488532560771</v>
@@ -6391,7 +6421,7 @@
         <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6402,7 +6432,7 @@
         <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6413,7 +6443,7 @@
         <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6424,7 +6454,7 @@
         <v>225</v>
       </c>
       <c r="C220" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6435,7 +6465,7 @@
         <v>226</v>
       </c>
       <c r="C221" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6446,7 +6476,7 @@
         <v>227</v>
       </c>
       <c r="C222" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6457,7 +6487,7 @@
         <v>228</v>
       </c>
       <c r="C223" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6468,7 +6498,7 @@
         <v>229</v>
       </c>
       <c r="C224" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6479,7 +6509,7 @@
         <v>230</v>
       </c>
       <c r="C225" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6490,7 +6520,7 @@
         <v>231</v>
       </c>
       <c r="C226" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6501,7 +6531,7 @@
         <v>232</v>
       </c>
       <c r="C227" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6512,7 +6542,7 @@
         <v>233</v>
       </c>
       <c r="C228" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6523,7 +6553,7 @@
         <v>234</v>
       </c>
       <c r="C229" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6534,7 +6564,7 @@
         <v>235</v>
       </c>
       <c r="C230" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6545,7 +6575,7 @@
         <v>236</v>
       </c>
       <c r="C231" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6556,7 +6586,7 @@
         <v>237</v>
       </c>
       <c r="C232" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6567,7 +6597,7 @@
         <v>238</v>
       </c>
       <c r="C233" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6589,7 +6619,7 @@
         <v>240</v>
       </c>
       <c r="C235" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6600,7 +6630,7 @@
         <v>241</v>
       </c>
       <c r="C236" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6611,7 +6641,7 @@
         <v>242</v>
       </c>
       <c r="C237" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6622,7 +6652,7 @@
         <v>243</v>
       </c>
       <c r="C238" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6633,19 +6663,19 @@
         <v>244</v>
       </c>
       <c r="C239" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D239" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="E239" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="F239">
         <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H239">
         <v>75.89696230478235</v>
@@ -6659,7 +6689,7 @@
         <v>245</v>
       </c>
       <c r="C240" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6670,7 +6700,7 @@
         <v>246</v>
       </c>
       <c r="C241" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6681,7 +6711,7 @@
         <v>247</v>
       </c>
       <c r="C242" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6714,7 +6744,7 @@
         <v>250</v>
       </c>
       <c r="C245" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6725,19 +6755,19 @@
         <v>251</v>
       </c>
       <c r="C246" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D246" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="E246" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="F246">
         <v>71</v>
       </c>
       <c r="G246" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H246">
         <v>59.10360534694774</v>
@@ -6751,7 +6781,7 @@
         <v>252</v>
       </c>
       <c r="C247" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6762,7 +6792,7 @@
         <v>253</v>
       </c>
       <c r="C248" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6773,7 +6803,7 @@
         <v>254</v>
       </c>
       <c r="C249" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6784,7 +6814,7 @@
         <v>255</v>
       </c>
       <c r="C250" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6795,19 +6825,19 @@
         <v>256</v>
       </c>
       <c r="C251" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D251" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="E251" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="F251">
         <v>80</v>
       </c>
       <c r="G251" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H251">
         <v>42.07806175105089</v>
@@ -6821,7 +6851,7 @@
         <v>257</v>
       </c>
       <c r="C252" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6832,7 +6862,7 @@
         <v>258</v>
       </c>
       <c r="C253" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6843,7 +6873,7 @@
         <v>259</v>
       </c>
       <c r="C254" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -6854,19 +6884,19 @@
         <v>260</v>
       </c>
       <c r="C255" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D255" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="E255" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="F255">
         <v>57</v>
       </c>
       <c r="G255" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H255">
         <v>69.02306939012857</v>
@@ -6880,19 +6910,19 @@
         <v>261</v>
       </c>
       <c r="C256" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="D256" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="E256" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="F256">
         <v>15</v>
       </c>
       <c r="G256" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H256">
         <v>80.74208043154863</v>
@@ -6906,7 +6936,7 @@
         <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -6917,19 +6947,19 @@
         <v>263</v>
       </c>
       <c r="C258" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D258" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="E258" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="F258">
         <v>29</v>
       </c>
       <c r="G258" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H258">
         <v>77.92974942850071</v>
@@ -6943,7 +6973,7 @@
         <v>264</v>
       </c>
       <c r="C259" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -6954,19 +6984,19 @@
         <v>265</v>
       </c>
       <c r="C260" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="D260" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="E260" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="F260">
         <v>73</v>
       </c>
       <c r="G260" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H260">
         <v>55.59909683094435</v>
@@ -6980,19 +7010,19 @@
         <v>266</v>
       </c>
       <c r="C261" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D261" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="E261" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="F261">
         <v>67</v>
       </c>
       <c r="G261" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H261">
         <v>63.64476824839144</v>
@@ -7006,19 +7036,19 @@
         <v>267</v>
       </c>
       <c r="C262" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D262" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="E262" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="F262">
         <v>58</v>
       </c>
       <c r="G262" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H262">
         <v>68.70527942815674</v>
@@ -7032,7 +7062,7 @@
         <v>268</v>
       </c>
       <c r="C263" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7043,7 +7073,7 @@
         <v>269</v>
       </c>
       <c r="C264" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7054,7 +7084,7 @@
         <v>270</v>
       </c>
       <c r="C265" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7065,7 +7095,7 @@
         <v>271</v>
       </c>
       <c r="C266" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7076,7 +7106,7 @@
         <v>272</v>
       </c>
       <c r="C267" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7087,7 +7117,7 @@
         <v>273</v>
       </c>
       <c r="C268" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7098,7 +7128,7 @@
         <v>274</v>
       </c>
       <c r="C269" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7109,7 +7139,7 @@
         <v>275</v>
       </c>
       <c r="C270" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7120,7 +7150,7 @@
         <v>276</v>
       </c>
       <c r="C271" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7131,7 +7161,7 @@
         <v>277</v>
       </c>
       <c r="C272" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7142,7 +7172,7 @@
         <v>278</v>
       </c>
       <c r="C273" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7153,7 +7183,7 @@
         <v>279</v>
       </c>
       <c r="C274" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7164,19 +7194,19 @@
         <v>280</v>
       </c>
       <c r="C275" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D275" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E275" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="F275">
         <v>62</v>
       </c>
       <c r="G275" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H275">
         <v>66.20620918866315</v>
@@ -7190,7 +7220,7 @@
         <v>281</v>
       </c>
       <c r="C276" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7201,19 +7231,19 @@
         <v>282</v>
       </c>
       <c r="C277" t="s">
-        <v>282</v>
+        <v>724</v>
       </c>
       <c r="D277" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="E277" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="F277">
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H277">
         <v>50.22106943311654</v>
@@ -7227,7 +7257,7 @@
         <v>283</v>
       </c>
       <c r="C278" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7238,7 +7268,7 @@
         <v>284</v>
       </c>
       <c r="C279" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7249,7 +7279,7 @@
         <v>285</v>
       </c>
       <c r="C280" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7260,7 +7290,7 @@
         <v>286</v>
       </c>
       <c r="C281" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7271,7 +7301,7 @@
         <v>287</v>
       </c>
       <c r="C282" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7282,7 +7312,7 @@
         <v>288</v>
       </c>
       <c r="C283" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7293,7 +7323,7 @@
         <v>289</v>
       </c>
       <c r="C284" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7304,7 +7334,7 @@
         <v>290</v>
       </c>
       <c r="C285" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7315,7 +7345,7 @@
         <v>291</v>
       </c>
       <c r="C286" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7326,7 +7356,7 @@
         <v>292</v>
       </c>
       <c r="C287" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7337,7 +7367,7 @@
         <v>293</v>
       </c>
       <c r="C288" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7348,19 +7378,19 @@
         <v>294</v>
       </c>
       <c r="C289" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D289" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="E289" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="F289">
         <v>51</v>
       </c>
       <c r="G289" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H289">
         <v>70.90763589545026</v>
@@ -7374,19 +7404,19 @@
         <v>295</v>
       </c>
       <c r="C290" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="D290" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="E290" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="F290">
         <v>41</v>
       </c>
       <c r="G290" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H290">
         <v>75.54063839743189</v>
@@ -7400,7 +7430,22 @@
         <v>296</v>
       </c>
       <c r="C291" t="s">
-        <v>727</v>
+        <v>734</v>
+      </c>
+      <c r="D291" t="s">
+        <v>963</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F291">
+        <v>20</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H291">
+        <v>80.15300247917203</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7411,22 +7456,7 @@
         <v>297</v>
       </c>
       <c r="C292" t="s">
-        <v>727</v>
-      </c>
-      <c r="D292" t="s">
-        <v>953</v>
-      </c>
-      <c r="E292" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F292">
-        <v>20</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H292">
-        <v>80.15300247917203</v>
+        <v>734</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7437,22 +7467,7 @@
         <v>298</v>
       </c>
       <c r="C293" t="s">
-        <v>728</v>
-      </c>
-      <c r="D293" t="s">
-        <v>954</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F293">
-        <v>21</v>
-      </c>
-      <c r="G293" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H293">
-        <v>79.77034027910715</v>
+        <v>735</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -7463,7 +7478,22 @@
         <v>299</v>
       </c>
       <c r="C294" t="s">
-        <v>728</v>
+        <v>735</v>
+      </c>
+      <c r="D294" t="s">
+        <v>964</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F294">
+        <v>21</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H294">
+        <v>79.77034027910715</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -7496,19 +7526,19 @@
         <v>302</v>
       </c>
       <c r="C297" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="D297" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="E297" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="F297">
         <v>48</v>
       </c>
       <c r="G297" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H297">
         <v>71.83742741063233</v>
@@ -7522,7 +7552,7 @@
         <v>303</v>
       </c>
       <c r="C298" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -7544,7 +7574,7 @@
         <v>305</v>
       </c>
       <c r="C300" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -7555,7 +7585,7 @@
         <v>306</v>
       </c>
       <c r="C301" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -7563,10 +7593,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C302" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -7574,10 +7604,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C303" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -7588,7 +7618,7 @@
         <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -7599,7 +7629,7 @@
         <v>308</v>
       </c>
       <c r="C305" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -7610,7 +7640,7 @@
         <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -7621,7 +7651,7 @@
         <v>310</v>
       </c>
       <c r="C307" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -7632,7 +7662,7 @@
         <v>311</v>
       </c>
       <c r="C308" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -7643,7 +7673,7 @@
         <v>312</v>
       </c>
       <c r="C309" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -7654,7 +7684,22 @@
         <v>313</v>
       </c>
       <c r="C310" t="s">
-        <v>738</v>
+        <v>745</v>
+      </c>
+      <c r="D310" t="s">
+        <v>966</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H310">
+        <v>86.04395782357739</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -7665,22 +7710,7 @@
         <v>314</v>
       </c>
       <c r="C311" t="s">
-        <v>738</v>
-      </c>
-      <c r="D311" t="s">
-        <v>956</v>
-      </c>
-      <c r="E311" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F311">
-        <v>5</v>
-      </c>
-      <c r="G311" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H311">
-        <v>86.04395782357739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -7691,7 +7721,7 @@
         <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -7702,7 +7732,7 @@
         <v>316</v>
       </c>
       <c r="C313" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -7724,7 +7754,7 @@
         <v>318</v>
       </c>
       <c r="C315" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -7735,7 +7765,7 @@
         <v>319</v>
       </c>
       <c r="C316" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -7746,19 +7776,19 @@
         <v>320</v>
       </c>
       <c r="C317" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D317" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="E317" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="F317">
         <v>64</v>
       </c>
       <c r="G317" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H317">
         <v>64.74381521933823</v>
@@ -7772,7 +7802,7 @@
         <v>321</v>
       </c>
       <c r="C318" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -7783,7 +7813,7 @@
         <v>322</v>
       </c>
       <c r="C319" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -7794,7 +7824,7 @@
         <v>323</v>
       </c>
       <c r="C320" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -7805,19 +7835,19 @@
         <v>324</v>
       </c>
       <c r="C321" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D321" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="E321" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="F321">
         <v>82</v>
       </c>
       <c r="G321" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H321">
         <v>34.64495200724027</v>
@@ -7831,7 +7861,7 @@
         <v>325</v>
       </c>
       <c r="C322" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -7842,7 +7872,7 @@
         <v>326</v>
       </c>
       <c r="C323" t="s">
-        <v>749</v>
+        <v>562</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -7853,7 +7883,7 @@
         <v>327</v>
       </c>
       <c r="C324" t="s">
-        <v>749</v>
+        <v>562</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -7864,7 +7894,7 @@
         <v>328</v>
       </c>
       <c r="C325" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -7875,19 +7905,19 @@
         <v>329</v>
       </c>
       <c r="C326" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="D326" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="E326" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="F326">
         <v>81</v>
       </c>
       <c r="G326" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="H326">
         <v>36.84028881813301</v>
@@ -7901,19 +7931,19 @@
         <v>330</v>
       </c>
       <c r="C327" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D327" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="E327" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="F327">
         <v>4</v>
       </c>
       <c r="G327" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H327">
         <v>86.64500402452008</v>
@@ -7927,7 +7957,7 @@
         <v>331</v>
       </c>
       <c r="C328" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -7938,7 +7968,7 @@
         <v>332</v>
       </c>
       <c r="C329" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -7949,19 +7979,19 @@
         <v>333</v>
       </c>
       <c r="C330" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D330" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="E330" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="F330">
         <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H330">
         <v>77.41348000113528</v>
@@ -7975,7 +8005,7 @@
         <v>334</v>
       </c>
       <c r="C331" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -7986,7 +8016,7 @@
         <v>335</v>
       </c>
       <c r="C332" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -7997,7 +8027,7 @@
         <v>336</v>
       </c>
       <c r="C333" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -8008,7 +8038,7 @@
         <v>337</v>
       </c>
       <c r="C334" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -8019,7 +8049,7 @@
         <v>338</v>
       </c>
       <c r="C335" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -8030,7 +8060,7 @@
         <v>339</v>
       </c>
       <c r="C336" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -8041,19 +8071,19 @@
         <v>340</v>
       </c>
       <c r="C337" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="D337" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="E337" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="F337">
         <v>45</v>
       </c>
       <c r="G337" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H337">
         <v>74.3316904098413</v>
@@ -8067,19 +8097,19 @@
         <v>341</v>
       </c>
       <c r="C338" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D338" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="E338" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="F338">
         <v>33</v>
       </c>
       <c r="G338" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H338">
         <v>76.48033217788654</v>
@@ -8093,7 +8123,7 @@
         <v>342</v>
       </c>
       <c r="C339" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -8104,7 +8134,7 @@
         <v>343</v>
       </c>
       <c r="C340" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -8115,7 +8145,7 @@
         <v>344</v>
       </c>
       <c r="C341" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -8126,7 +8156,7 @@
         <v>345</v>
       </c>
       <c r="C342" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -8137,7 +8167,7 @@
         <v>346</v>
       </c>
       <c r="C343" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -8148,19 +8178,19 @@
         <v>347</v>
       </c>
       <c r="C344" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D344" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="E344" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="F344">
         <v>30</v>
       </c>
       <c r="G344" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H344">
         <v>77.89149167224349</v>
@@ -8174,7 +8204,7 @@
         <v>348</v>
       </c>
       <c r="C345" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -8185,7 +8215,7 @@
         <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8196,7 +8226,7 @@
         <v>350</v>
       </c>
       <c r="C347" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -8207,7 +8237,7 @@
         <v>351</v>
       </c>
       <c r="C348" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -8218,7 +8248,7 @@
         <v>352</v>
       </c>
       <c r="C349" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -8229,7 +8259,7 @@
         <v>353</v>
       </c>
       <c r="C350" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -8240,7 +8270,7 @@
         <v>354</v>
       </c>
       <c r="C351" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -8251,7 +8281,7 @@
         <v>355</v>
       </c>
       <c r="C352" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -8262,7 +8292,7 @@
         <v>356</v>
       </c>
       <c r="C353" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -8273,7 +8303,7 @@
         <v>357</v>
       </c>
       <c r="C354" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -8284,7 +8314,7 @@
         <v>358</v>
       </c>
       <c r="C355" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -8295,7 +8325,7 @@
         <v>359</v>
       </c>
       <c r="C356" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -8306,7 +8336,7 @@
         <v>360</v>
       </c>
       <c r="C357" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -8317,7 +8347,7 @@
         <v>361</v>
       </c>
       <c r="C358" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -8328,19 +8358,19 @@
         <v>362</v>
       </c>
       <c r="C359" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D359" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="E359" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="F359">
         <v>59</v>
       </c>
       <c r="G359" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H359">
         <v>68.22186592528487</v>
@@ -8354,7 +8384,7 @@
         <v>363</v>
       </c>
       <c r="C360" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -8365,7 +8395,7 @@
         <v>364</v>
       </c>
       <c r="C361" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -8376,7 +8406,7 @@
         <v>365</v>
       </c>
       <c r="C362" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -8387,7 +8417,7 @@
         <v>366</v>
       </c>
       <c r="C363" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -8398,7 +8428,7 @@
         <v>367</v>
       </c>
       <c r="C364" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -8409,7 +8439,7 @@
         <v>368</v>
       </c>
       <c r="C365" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -8420,7 +8450,7 @@
         <v>369</v>
       </c>
       <c r="C366" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -8431,19 +8461,19 @@
         <v>370</v>
       </c>
       <c r="C367" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D367" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="E367" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="F367">
         <v>54</v>
       </c>
       <c r="G367" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H367">
         <v>70.35936470584429</v>
@@ -8457,7 +8487,7 @@
         <v>371</v>
       </c>
       <c r="C368" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -8468,7 +8498,7 @@
         <v>372</v>
       </c>
       <c r="C369" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -8479,7 +8509,7 @@
         <v>373</v>
       </c>
       <c r="C370" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -8490,7 +8520,7 @@
         <v>374</v>
       </c>
       <c r="C371" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -8501,19 +8531,19 @@
         <v>375</v>
       </c>
       <c r="C372" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D372" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="E372" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="F372">
         <v>26</v>
       </c>
       <c r="G372" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H372">
         <v>78.42277847346016</v>
@@ -8527,7 +8557,7 @@
         <v>376</v>
       </c>
       <c r="C373" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -8538,19 +8568,19 @@
         <v>377</v>
       </c>
       <c r="C374" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="D374" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="E374" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="F374">
         <v>36</v>
       </c>
       <c r="G374" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H374">
         <v>76.08867468058621</v>
@@ -8564,7 +8594,7 @@
         <v>378</v>
       </c>
       <c r="C375" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -8575,7 +8605,7 @@
         <v>379</v>
       </c>
       <c r="C376" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -8586,7 +8616,7 @@
         <v>380</v>
       </c>
       <c r="C377" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -8597,7 +8627,7 @@
         <v>381</v>
       </c>
       <c r="C378" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -8608,7 +8638,7 @@
         <v>382</v>
       </c>
       <c r="C379" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -8619,22 +8649,7 @@
         <v>383</v>
       </c>
       <c r="C380" t="s">
-        <v>796</v>
-      </c>
-      <c r="D380" t="s">
-        <v>969</v>
-      </c>
-      <c r="E380" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F380">
-        <v>72</v>
-      </c>
-      <c r="G380" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H380">
-        <v>58.38198839300029</v>
+        <v>802</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -8645,7 +8660,7 @@
         <v>384</v>
       </c>
       <c r="C381" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -8656,7 +8671,22 @@
         <v>385</v>
       </c>
       <c r="C382" t="s">
-        <v>797</v>
+        <v>804</v>
+      </c>
+      <c r="D382" t="s">
+        <v>979</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F382">
+        <v>72</v>
+      </c>
+      <c r="G382" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H382">
+        <v>58.38198839300029</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -8667,7 +8697,7 @@
         <v>386</v>
       </c>
       <c r="C383" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -8678,7 +8708,7 @@
         <v>387</v>
       </c>
       <c r="C384" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -8689,7 +8719,7 @@
         <v>388</v>
       </c>
       <c r="C385" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -8700,7 +8730,7 @@
         <v>389</v>
       </c>
       <c r="C386" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -8711,7 +8741,7 @@
         <v>390</v>
       </c>
       <c r="C387" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -8722,7 +8752,7 @@
         <v>391</v>
       </c>
       <c r="C388" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -8733,7 +8763,7 @@
         <v>392</v>
       </c>
       <c r="C389" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -8744,7 +8774,7 @@
         <v>393</v>
       </c>
       <c r="C390" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -8755,7 +8785,7 @@
         <v>394</v>
       </c>
       <c r="C391" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -8766,7 +8796,7 @@
         <v>395</v>
       </c>
       <c r="C392" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -8777,7 +8807,7 @@
         <v>396</v>
       </c>
       <c r="C393" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -8788,7 +8818,7 @@
         <v>397</v>
       </c>
       <c r="C394" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -8799,7 +8829,7 @@
         <v>398</v>
       </c>
       <c r="C395" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -8810,7 +8840,7 @@
         <v>399</v>
       </c>
       <c r="C396" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -8821,7 +8851,7 @@
         <v>400</v>
       </c>
       <c r="C397" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -8832,7 +8862,7 @@
         <v>401</v>
       </c>
       <c r="C398" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -8843,7 +8873,7 @@
         <v>402</v>
       </c>
       <c r="C399" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -8854,7 +8884,7 @@
         <v>403</v>
       </c>
       <c r="C400" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -8865,7 +8895,7 @@
         <v>404</v>
       </c>
       <c r="C401" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -8876,7 +8906,7 @@
         <v>405</v>
       </c>
       <c r="C402" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -8887,7 +8917,7 @@
         <v>406</v>
       </c>
       <c r="C403" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -8898,7 +8928,7 @@
         <v>407</v>
       </c>
       <c r="C404" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -8909,7 +8939,7 @@
         <v>408</v>
       </c>
       <c r="C405" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -8920,22 +8950,7 @@
         <v>409</v>
       </c>
       <c r="C406" t="s">
-        <v>817</v>
-      </c>
-      <c r="D406" t="s">
-        <v>970</v>
-      </c>
-      <c r="E406" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F406">
-        <v>74</v>
-      </c>
-      <c r="G406" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H406">
-        <v>54.66539715652035</v>
+        <v>822</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -8946,7 +8961,7 @@
         <v>410</v>
       </c>
       <c r="C407" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -8957,7 +8972,7 @@
         <v>411</v>
       </c>
       <c r="C408" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -8968,7 +8983,22 @@
         <v>412</v>
       </c>
       <c r="C409" t="s">
-        <v>820</v>
+        <v>825</v>
+      </c>
+      <c r="D409" t="s">
+        <v>980</v>
+      </c>
+      <c r="E409" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F409">
+        <v>74</v>
+      </c>
+      <c r="G409" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H409">
+        <v>54.66539715652035</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -8979,7 +9009,7 @@
         <v>413</v>
       </c>
       <c r="C410" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -8990,7 +9020,7 @@
         <v>414</v>
       </c>
       <c r="C411" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -9001,7 +9031,7 @@
         <v>415</v>
       </c>
       <c r="C412" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -9012,22 +9042,7 @@
         <v>416</v>
       </c>
       <c r="C413" t="s">
-        <v>824</v>
-      </c>
-      <c r="D413" t="s">
-        <v>971</v>
-      </c>
-      <c r="E413" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F413">
-        <v>37</v>
-      </c>
-      <c r="G413" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H413">
-        <v>76.00639697729663</v>
+        <v>829</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -9038,7 +9053,7 @@
         <v>417</v>
       </c>
       <c r="C414" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -9049,7 +9064,7 @@
         <v>418</v>
       </c>
       <c r="C415" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -9060,22 +9075,22 @@
         <v>419</v>
       </c>
       <c r="C416" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="D416" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="E416" t="s">
-        <v>988</v>
+        <v>1023</v>
       </c>
       <c r="F416">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G416" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H416">
-        <v>78.13956086942414</v>
+        <v>76.00639697729663</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -9086,7 +9101,7 @@
         <v>420</v>
       </c>
       <c r="C417" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -9097,7 +9112,7 @@
         <v>421</v>
       </c>
       <c r="C418" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -9108,22 +9123,22 @@
         <v>422</v>
       </c>
       <c r="C419" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D419" t="s">
-        <v>973</v>
+        <v>982</v>
       </c>
       <c r="E419" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="F419">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G419" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H419">
-        <v>70.92941427807827</v>
+        <v>78.13956086942414</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -9134,7 +9149,7 @@
         <v>423</v>
       </c>
       <c r="C420" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -9145,7 +9160,7 @@
         <v>424</v>
       </c>
       <c r="C421" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -9156,7 +9171,22 @@
         <v>425</v>
       </c>
       <c r="C422" t="s">
-        <v>831</v>
+        <v>836</v>
+      </c>
+      <c r="D422" t="s">
+        <v>983</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F422">
+        <v>50</v>
+      </c>
+      <c r="G422" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H422">
+        <v>70.92941427807827</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -9167,7 +9197,7 @@
         <v>426</v>
       </c>
       <c r="C423" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -9178,7 +9208,7 @@
         <v>427</v>
       </c>
       <c r="C424" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -9189,7 +9219,7 @@
         <v>428</v>
       </c>
       <c r="C425" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -9200,7 +9230,7 @@
         <v>429</v>
       </c>
       <c r="C426" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -9211,22 +9241,7 @@
         <v>430</v>
       </c>
       <c r="C427" t="s">
-        <v>834</v>
-      </c>
-      <c r="D427" t="s">
-        <v>974</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F427">
-        <v>43</v>
-      </c>
-      <c r="G427" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H427">
-        <v>74.8002669574454</v>
+        <v>840</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -9237,22 +9252,7 @@
         <v>431</v>
       </c>
       <c r="C428" t="s">
-        <v>835</v>
-      </c>
-      <c r="D428" t="s">
-        <v>975</v>
-      </c>
-      <c r="E428" t="s">
-        <v>988</v>
-      </c>
-      <c r="F428">
-        <v>56</v>
-      </c>
-      <c r="G428" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H428">
-        <v>69.58059018659432</v>
+        <v>840</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -9263,22 +9263,7 @@
         <v>432</v>
       </c>
       <c r="C429" t="s">
-        <v>836</v>
-      </c>
-      <c r="D429" t="s">
-        <v>976</v>
-      </c>
-      <c r="E429" t="s">
-        <v>991</v>
-      </c>
-      <c r="F429">
-        <v>78</v>
-      </c>
-      <c r="G429" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H429">
-        <v>48.60415596324413</v>
+        <v>841</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -9289,7 +9274,22 @@
         <v>433</v>
       </c>
       <c r="C430" t="s">
-        <v>837</v>
+        <v>842</v>
+      </c>
+      <c r="D430" t="s">
+        <v>984</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F430">
+        <v>43</v>
+      </c>
+      <c r="G430" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H430">
+        <v>74.8002669574454</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -9300,22 +9300,22 @@
         <v>434</v>
       </c>
       <c r="C431" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="D431" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="E431" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="F431">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G431" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="H431">
-        <v>60.97208166900196</v>
+        <v>69.58059018659432</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -9326,7 +9326,22 @@
         <v>435</v>
       </c>
       <c r="C432" t="s">
-        <v>838</v>
+        <v>844</v>
+      </c>
+      <c r="D432" t="s">
+        <v>986</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F432">
+        <v>78</v>
+      </c>
+      <c r="G432" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H432">
+        <v>48.60415596324413</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -9337,7 +9352,7 @@
         <v>436</v>
       </c>
       <c r="C433" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -9348,7 +9363,22 @@
         <v>437</v>
       </c>
       <c r="C434" t="s">
-        <v>839</v>
+        <v>846</v>
+      </c>
+      <c r="D434" t="s">
+        <v>987</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F434">
+        <v>68</v>
+      </c>
+      <c r="G434" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H434">
+        <v>60.97208166900196</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -9359,7 +9389,7 @@
         <v>438</v>
       </c>
       <c r="C435" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -9370,7 +9400,7 @@
         <v>439</v>
       </c>
       <c r="C436" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -9381,7 +9411,7 @@
         <v>440</v>
       </c>
       <c r="C437" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -9392,7 +9422,7 @@
         <v>441</v>
       </c>
       <c r="C438" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -9403,22 +9433,7 @@
         <v>442</v>
       </c>
       <c r="C439" t="s">
-        <v>841</v>
-      </c>
-      <c r="D439" t="s">
-        <v>978</v>
-      </c>
-      <c r="E439" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F439">
-        <v>61</v>
-      </c>
-      <c r="G439" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H439">
-        <v>66.26063862001763</v>
+        <v>848</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -9429,7 +9444,7 @@
         <v>443</v>
       </c>
       <c r="C440" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -9440,7 +9455,7 @@
         <v>444</v>
       </c>
       <c r="C441" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -9451,7 +9466,22 @@
         <v>445</v>
       </c>
       <c r="C442" t="s">
-        <v>843</v>
+        <v>849</v>
+      </c>
+      <c r="D442" t="s">
+        <v>988</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F442">
+        <v>61</v>
+      </c>
+      <c r="G442" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H442">
+        <v>66.26063862001763</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -9462,7 +9492,7 @@
         <v>446</v>
       </c>
       <c r="C443" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -9473,7 +9503,7 @@
         <v>447</v>
       </c>
       <c r="C444" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -9484,7 +9514,7 @@
         <v>448</v>
       </c>
       <c r="C445" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -9495,7 +9525,7 @@
         <v>449</v>
       </c>
       <c r="C446" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -9506,22 +9536,7 @@
         <v>450</v>
       </c>
       <c r="C447" t="s">
-        <v>847</v>
-      </c>
-      <c r="D447" t="s">
-        <v>979</v>
-      </c>
-      <c r="E447" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F447">
-        <v>66</v>
-      </c>
-      <c r="G447" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H447">
-        <v>63.76190651426799</v>
+        <v>852</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -9532,7 +9547,7 @@
         <v>451</v>
       </c>
       <c r="C448" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -9543,7 +9558,7 @@
         <v>452</v>
       </c>
       <c r="C449" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -9554,7 +9569,22 @@
         <v>453</v>
       </c>
       <c r="C450" t="s">
-        <v>850</v>
+        <v>855</v>
+      </c>
+      <c r="D450" t="s">
+        <v>989</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F450">
+        <v>66</v>
+      </c>
+      <c r="G450" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H450">
+        <v>63.76190651426799</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -9565,7 +9595,7 @@
         <v>454</v>
       </c>
       <c r="C451" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -9576,7 +9606,7 @@
         <v>455</v>
       </c>
       <c r="C452" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -9587,7 +9617,7 @@
         <v>456</v>
       </c>
       <c r="C453" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -9598,7 +9628,7 @@
         <v>457</v>
       </c>
       <c r="C454" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -9609,7 +9639,7 @@
         <v>458</v>
       </c>
       <c r="C455" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -9620,7 +9650,7 @@
         <v>459</v>
       </c>
       <c r="C456" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -9631,22 +9661,7 @@
         <v>460</v>
       </c>
       <c r="C457" t="s">
-        <v>854</v>
-      </c>
-      <c r="D457" t="s">
-        <v>980</v>
-      </c>
-      <c r="E457" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F457">
-        <v>13</v>
-      </c>
-      <c r="G457" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H457">
-        <v>81.8031814030326</v>
+        <v>860</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -9657,7 +9672,7 @@
         <v>461</v>
       </c>
       <c r="C458" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -9668,7 +9683,7 @@
         <v>462</v>
       </c>
       <c r="C459" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -9679,7 +9694,22 @@
         <v>463</v>
       </c>
       <c r="C460" t="s">
-        <v>857</v>
+        <v>862</v>
+      </c>
+      <c r="D460" t="s">
+        <v>990</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F460">
+        <v>13</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H460">
+        <v>81.8031814030326</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -9690,7 +9720,7 @@
         <v>464</v>
       </c>
       <c r="C461" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -9701,7 +9731,7 @@
         <v>465</v>
       </c>
       <c r="C462" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -9712,22 +9742,7 @@
         <v>466</v>
       </c>
       <c r="C463" t="s">
-        <v>858</v>
-      </c>
-      <c r="D463" t="s">
-        <v>981</v>
-      </c>
-      <c r="E463" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F463">
-        <v>11</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H463">
-        <v>82.15944638761668</v>
+        <v>865</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -9738,10 +9753,10 @@
         <v>467</v>
       </c>
       <c r="C464" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -9749,10 +9764,10 @@
         <v>468</v>
       </c>
       <c r="C465" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -9760,10 +9775,25 @@
         <v>469</v>
       </c>
       <c r="C466" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
+        <v>866</v>
+      </c>
+      <c r="D466" t="s">
+        <v>991</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F466">
+        <v>11</v>
+      </c>
+      <c r="G466" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H466">
+        <v>82.15944638761668</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -9771,10 +9801,10 @@
         <v>470</v>
       </c>
       <c r="C467" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -9782,10 +9812,10 @@
         <v>471</v>
       </c>
       <c r="C468" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -9793,10 +9823,10 @@
         <v>472</v>
       </c>
       <c r="C469" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9804,10 +9834,10 @@
         <v>473</v>
       </c>
       <c r="C470" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -9815,10 +9845,10 @@
         <v>474</v>
       </c>
       <c r="C471" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -9826,10 +9856,10 @@
         <v>475</v>
       </c>
       <c r="C472" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -9837,10 +9867,10 @@
         <v>476</v>
       </c>
       <c r="C473" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -9848,10 +9878,10 @@
         <v>477</v>
       </c>
       <c r="C474" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -9859,10 +9889,10 @@
         <v>478</v>
       </c>
       <c r="C475" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -9870,10 +9900,10 @@
         <v>479</v>
       </c>
       <c r="C476" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -9881,10 +9911,10 @@
         <v>480</v>
       </c>
       <c r="C477" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -9892,10 +9922,10 @@
         <v>481</v>
       </c>
       <c r="C478" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -9903,10 +9933,10 @@
         <v>482</v>
       </c>
       <c r="C479" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -9914,7 +9944,7 @@
         <v>483</v>
       </c>
       <c r="C480" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -9925,7 +9955,7 @@
         <v>484</v>
       </c>
       <c r="C481" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -9936,7 +9966,7 @@
         <v>485</v>
       </c>
       <c r="C482" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -9947,7 +9977,7 @@
         <v>486</v>
       </c>
       <c r="C483" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -9958,7 +9988,7 @@
         <v>487</v>
       </c>
       <c r="C484" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -9969,7 +9999,7 @@
         <v>488</v>
       </c>
       <c r="C485" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -9980,22 +10010,7 @@
         <v>489</v>
       </c>
       <c r="C486" t="s">
-        <v>873</v>
-      </c>
-      <c r="D486" t="s">
-        <v>982</v>
-      </c>
-      <c r="E486" t="s">
-        <v>989</v>
-      </c>
-      <c r="F486">
-        <v>18</v>
-      </c>
-      <c r="G486" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H486">
-        <v>80.27960966237309</v>
+        <v>879</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -10006,7 +10021,7 @@
         <v>490</v>
       </c>
       <c r="C487" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -10017,7 +10032,7 @@
         <v>491</v>
       </c>
       <c r="C488" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -10028,7 +10043,22 @@
         <v>492</v>
       </c>
       <c r="C489" t="s">
-        <v>875</v>
+        <v>881</v>
+      </c>
+      <c r="D489" t="s">
+        <v>992</v>
+      </c>
+      <c r="E489" t="s">
+        <v>999</v>
+      </c>
+      <c r="F489">
+        <v>18</v>
+      </c>
+      <c r="G489" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H489">
+        <v>80.27960966237309</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -10039,7 +10069,7 @@
         <v>493</v>
       </c>
       <c r="C490" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -10050,7 +10080,7 @@
         <v>494</v>
       </c>
       <c r="C491" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -10061,7 +10091,7 @@
         <v>495</v>
       </c>
       <c r="C492" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -10072,7 +10102,7 @@
         <v>496</v>
       </c>
       <c r="C493" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -10083,7 +10113,7 @@
         <v>497</v>
       </c>
       <c r="C494" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -10094,7 +10124,7 @@
         <v>498</v>
       </c>
       <c r="C495" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -10105,7 +10135,7 @@
         <v>499</v>
       </c>
       <c r="C496" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -10116,7 +10146,7 @@
         <v>500</v>
       </c>
       <c r="C497" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -10127,7 +10157,7 @@
         <v>501</v>
       </c>
       <c r="C498" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -10138,7 +10168,7 @@
         <v>502</v>
       </c>
       <c r="C499" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -10149,7 +10179,7 @@
         <v>503</v>
       </c>
       <c r="C500" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -10160,7 +10190,7 @@
         <v>504</v>
       </c>
       <c r="C501" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -10171,7 +10201,7 @@
         <v>505</v>
       </c>
       <c r="C502" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -10182,22 +10212,7 @@
         <v>506</v>
       </c>
       <c r="C503" t="s">
-        <v>883</v>
-      </c>
-      <c r="D503" t="s">
-        <v>983</v>
-      </c>
-      <c r="E503" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F503">
-        <v>63</v>
-      </c>
-      <c r="G503" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H503">
-        <v>66.02252939063983</v>
+        <v>890</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -10208,7 +10223,7 @@
         <v>507</v>
       </c>
       <c r="C504" t="s">
-        <v>507</v>
+        <v>891</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -10219,7 +10234,22 @@
         <v>508</v>
       </c>
       <c r="C505" t="s">
-        <v>884</v>
+        <v>891</v>
+      </c>
+      <c r="D505" t="s">
+        <v>993</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F505">
+        <v>63</v>
+      </c>
+      <c r="G505" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H505">
+        <v>66.02252939063983</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -10230,7 +10260,7 @@
         <v>509</v>
       </c>
       <c r="C506" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -10241,22 +10271,7 @@
         <v>510</v>
       </c>
       <c r="C507" t="s">
-        <v>886</v>
-      </c>
-      <c r="D507" t="s">
-        <v>984</v>
-      </c>
-      <c r="E507" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F507">
-        <v>65</v>
-      </c>
-      <c r="G507" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H507">
-        <v>64.43986553807281</v>
+        <v>892</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -10267,22 +10282,7 @@
         <v>511</v>
       </c>
       <c r="C508" t="s">
-        <v>887</v>
-      </c>
-      <c r="D508" t="s">
-        <v>985</v>
-      </c>
-      <c r="E508" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F508">
-        <v>49</v>
-      </c>
-      <c r="G508" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H508">
-        <v>71.32571895194177</v>
+        <v>511</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -10293,7 +10293,7 @@
         <v>512</v>
       </c>
       <c r="C509" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -10304,7 +10304,7 @@
         <v>513</v>
       </c>
       <c r="C510" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -10315,7 +10315,22 @@
         <v>514</v>
       </c>
       <c r="C511" t="s">
-        <v>890</v>
+        <v>895</v>
+      </c>
+      <c r="D511" t="s">
+        <v>994</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F511">
+        <v>65</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H511">
+        <v>64.43986553807281</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -10326,7 +10341,22 @@
         <v>515</v>
       </c>
       <c r="C512" t="s">
-        <v>891</v>
+        <v>896</v>
+      </c>
+      <c r="D512" t="s">
+        <v>995</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F512">
+        <v>49</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H512">
+        <v>71.32571895194177</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -10337,22 +10367,7 @@
         <v>516</v>
       </c>
       <c r="C513" t="s">
-        <v>892</v>
-      </c>
-      <c r="D513" t="s">
-        <v>986</v>
-      </c>
-      <c r="E513" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F513">
-        <v>2</v>
-      </c>
-      <c r="G513" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H513">
-        <v>87.6686676765934</v>
+        <v>897</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -10363,7 +10378,7 @@
         <v>517</v>
       </c>
       <c r="C514" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -10374,7 +10389,7 @@
         <v>518</v>
       </c>
       <c r="C515" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -10385,22 +10400,7 @@
         <v>519</v>
       </c>
       <c r="C516" t="s">
-        <v>895</v>
-      </c>
-      <c r="D516" t="s">
-        <v>987</v>
-      </c>
-      <c r="E516" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F516">
-        <v>44</v>
-      </c>
-      <c r="G516" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H516">
-        <v>74.72538150367258</v>
+        <v>900</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -10411,7 +10411,22 @@
         <v>520</v>
       </c>
       <c r="C517" t="s">
-        <v>520</v>
+        <v>901</v>
+      </c>
+      <c r="D517" t="s">
+        <v>996</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F517">
+        <v>2</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H517">
+        <v>87.6686676765934</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -10422,7 +10437,7 @@
         <v>521</v>
       </c>
       <c r="C518" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -10433,7 +10448,7 @@
         <v>522</v>
       </c>
       <c r="C519" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -10444,7 +10459,22 @@
         <v>523</v>
       </c>
       <c r="C520" t="s">
-        <v>897</v>
+        <v>904</v>
+      </c>
+      <c r="D520" t="s">
+        <v>997</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F520">
+        <v>44</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H520">
+        <v>74.72538150367258</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -10455,7 +10485,7 @@
         <v>524</v>
       </c>
       <c r="C521" t="s">
-        <v>898</v>
+        <v>524</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -10466,7 +10496,7 @@
         <v>525</v>
       </c>
       <c r="C522" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -10477,7 +10507,7 @@
         <v>526</v>
       </c>
       <c r="C523" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -10488,7 +10518,7 @@
         <v>527</v>
       </c>
       <c r="C524" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -10499,7 +10529,7 @@
         <v>528</v>
       </c>
       <c r="C525" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -10510,7 +10540,7 @@
         <v>529</v>
       </c>
       <c r="C526" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -10521,7 +10551,7 @@
         <v>530</v>
       </c>
       <c r="C527" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -10532,7 +10562,7 @@
         <v>531</v>
       </c>
       <c r="C528" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -10543,7 +10573,84 @@
         <v>532</v>
       </c>
       <c r="C529" t="s">
-        <v>904</v>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>533</v>
+      </c>
+      <c r="C530" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>534</v>
+      </c>
+      <c r="C531" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>535</v>
+      </c>
+      <c r="C532" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>536</v>
+      </c>
+      <c r="C533" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>537</v>
+      </c>
+      <c r="C534" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>538</v>
+      </c>
+      <c r="C535" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>539</v>
+      </c>
+      <c r="C536" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
